--- a/biology/Biologie cellulaire et moléculaire/Pentraxine/Pentraxine.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Pentraxine/Pentraxine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les pentraxines (PTX), également connues sous le nom de pentaxines, sont une famille évolutive conservée de protéines caractérisées par le fait qu'elles contiennent un domaine protéique de pentraxine. Les protéines de la famille des pentraxines sont impliquées dans les réponses immunologiques aiguës[1]. Ils sont une classe de récepteurs de reconnaissance de formes (PRR). Ils constituent une superfamille de protéines conservées multifonctionnelles, dont certaines sont des composants du bras humoral de l'immunité innée et se comportent comme des ancêtres fonctionnels des anticorps. Elles sont connues sous le nom de protéines de phase aiguë classiques (APP), connues depuis plus d'un siècle[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les pentraxines (PTX), également connues sous le nom de pentaxines, sont une famille évolutive conservée de protéines caractérisées par le fait qu'elles contiennent un domaine protéique de pentraxine. Les protéines de la famille des pentraxines sont impliquées dans les réponses immunologiques aiguës. Ils sont une classe de récepteurs de reconnaissance de formes (PRR). Ils constituent une superfamille de protéines conservées multifonctionnelles, dont certaines sont des composants du bras humoral de l'immunité innée et se comportent comme des ancêtres fonctionnels des anticorps. Elles sont connues sous le nom de protéines de phase aiguë classiques (APP), connues depuis plus d'un siècle.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les pentraxines sont caractérisées par une liaison au ligand dépendante du calcium et une structure β-jellyroll aplatie caractéristique similaire à celle des lectines de légumineuses[3]. Le nom "pentraxine" est dérivé du mot grec pour cinq (penta) et axe (axe) relatif à la symétrie radiale de cinq monomères formant un anneau d'environ 95 Å de diamètre et 35 Å de profondeur observé chez les premiers membres de cette famille à identifier. Les pentraxines "courtes" comprennent le composant sérique amyloïde P (SAP) et la protéine C réactive (CRP). Les pentraxines "longues" comprennent la PTX3 (une molécule modulée par les cytokines) et plusieurs pentraxines neuronales.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les pentraxines sont caractérisées par une liaison au ligand dépendante du calcium et une structure β-jellyroll aplatie caractéristique similaire à celle des lectines de légumineuses. Le nom "pentraxine" est dérivé du mot grec pour cinq (penta) et axe (axe) relatif à la symétrie radiale de cinq monomères formant un anneau d'environ 95 Å de diamètre et 35 Å de profondeur observé chez les premiers membres de cette famille à identifier. Les pentraxines "courtes" comprennent le composant sérique amyloïde P (SAP) et la protéine C réactive (CRP). Les pentraxines "longues" comprennent la PTX3 (une molécule modulée par les cytokines) et plusieurs pentraxines neuronales.
 </t>
         </is>
       </c>
@@ -542,21 +556,233 @@
           <t>Membres de la famille</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Trois des principaux membres de la famille des pentraxines sont des protéines sériques : à savoir, la CRP[4], SAP[5], et la protéine femelle de hamster (FP)[6]. La protéine PTX3 (ou TSG-14) est une protéine induite par les cytokines qui est homologue aux CRP et aux SAP, mais sa fonction n'a pas encore été déterminée.
-Protéine C-réactive
-La protéine C-réactive est exprimée au cours de la phase aiguë de réponse à une lésion tissulaire ou à une inflammation chez les mammifères. La protéine ressemble à un anticorps et remplit plusieurs fonctions associées à la défense de l'hôte : elle favorise l'agglutination, le gonflement capsulaire bactérien et la phagocytose, et active la voie classique du complément par sa liaison dépendante du calcium à la phosphocholine[4]. Les CRP ont également été séquencés chez un invertébré, Limulus polyphemus (limule de l'Atlantique), où ils sont un constituant normal de l'hémolymphe.
-Pentraxine 3
-La pentraxine 3 (PTX3) est une protéine de phase aiguë dont les niveaux augmentent lors d'infections graves chez l'homme. En cas d'infections du système nerveux central, PTX3 aide à distinguer la méningo-encéphalite bactérienne de la méningo-encéphalite aseptique. Elle est significativement plus élevée dans les méningo-encéphalites bactériennes[7].
-Composant amyloïde P sérique
-Le composant amyloïde P sérique est une protéine de vertébré identique aux formes tissulaires du composant amyloïde P. On le trouve dans tous les types de dépôts amyloïdes, dans la membrane basale glomérulaire et dans les fibres élastiques des vaisseaux sanguins. SAP se lie à divers ligands lipoprotéiques d'une manière dépendante du calcium, et il a été suggéré que, chez les mammifères, cela pourrait avoir des implications importantes dans l'athérosclérose et l'amylose[5].
-Protéine femelle de hamster
-La protéine femelle de hamster est un homologue de SAP trouvé dans Mesocricetus auratus (le hamster doré). La concentration de cette protéine plasmatique est modifiée par les stéroïdes sexuels et les stimuli qui déclenchent une réponse de phase aiguë[6].
-Système nerveux
-Les protéines de la pentraxine exprimées dans le système nerveux sont la pentraxine neurale I (NPTXI) et II (NPTXII)[8]. NPTXI et NPTXII sont homologues et peuvent exister au sein d'une même espèce. Il est suggéré que les deux protéines interviennent dans l'absorption des macromolécules synaptiques et jouent un rôle dans la plasticité synaptique. L'apexine, une protéine acrosomique du sperme, est un homologue du NPTXII trouvé dans Cavia porcellus (cochon d'Inde)[9].
-Humain
-Les gènes humains codant pour les protéines qui contiennent ce domaine comprennent :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trois des principaux membres de la famille des pentraxines sont des protéines sériques : à savoir, la CRP, SAP, et la protéine femelle de hamster (FP). La protéine PTX3 (ou TSG-14) est une protéine induite par les cytokines qui est homologue aux CRP et aux SAP, mais sa fonction n'a pas encore été déterminée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pentraxine</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pentraxine</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Membres de la famille</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Protéine C-réactive</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La protéine C-réactive est exprimée au cours de la phase aiguë de réponse à une lésion tissulaire ou à une inflammation chez les mammifères. La protéine ressemble à un anticorps et remplit plusieurs fonctions associées à la défense de l'hôte : elle favorise l'agglutination, le gonflement capsulaire bactérien et la phagocytose, et active la voie classique du complément par sa liaison dépendante du calcium à la phosphocholine. Les CRP ont également été séquencés chez un invertébré, Limulus polyphemus (limule de l'Atlantique), où ils sont un constituant normal de l'hémolymphe.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pentraxine</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pentraxine</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Membres de la famille</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Pentraxine 3</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La pentraxine 3 (PTX3) est une protéine de phase aiguë dont les niveaux augmentent lors d'infections graves chez l'homme. En cas d'infections du système nerveux central, PTX3 aide à distinguer la méningo-encéphalite bactérienne de la méningo-encéphalite aseptique. Elle est significativement plus élevée dans les méningo-encéphalites bactériennes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pentraxine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pentraxine</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Membres de la famille</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Composant amyloïde P sérique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le composant amyloïde P sérique est une protéine de vertébré identique aux formes tissulaires du composant amyloïde P. On le trouve dans tous les types de dépôts amyloïdes, dans la membrane basale glomérulaire et dans les fibres élastiques des vaisseaux sanguins. SAP se lie à divers ligands lipoprotéiques d'une manière dépendante du calcium, et il a été suggéré que, chez les mammifères, cela pourrait avoir des implications importantes dans l'athérosclérose et l'amylose.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pentraxine</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pentraxine</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Membres de la famille</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protéine femelle de hamster</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La protéine femelle de hamster est un homologue de SAP trouvé dans Mesocricetus auratus (le hamster doré). La concentration de cette protéine plasmatique est modifiée par les stéroïdes sexuels et les stimuli qui déclenchent une réponse de phase aiguë.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pentraxine</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pentraxine</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Membres de la famille</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Système nerveux</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les protéines de la pentraxine exprimées dans le système nerveux sont la pentraxine neurale I (NPTXI) et II (NPTXII). NPTXI et NPTXII sont homologues et peuvent exister au sein d'une même espèce. Il est suggéré que les deux protéines interviennent dans l'absorption des macromolécules synaptiques et jouent un rôle dans la plasticité synaptique. L'apexine, une protéine acrosomique du sperme, est un homologue du NPTXII trouvé dans Cavia porcellus (cochon d'Inde).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Pentraxine</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pentraxine</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Membres de la famille</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Humain</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Les gènes humains codant pour les protéines qui contiennent ce domaine comprennent :
 APCS
 PCR
 GPR144
